--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/raven/plugins/SR2ML/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD421AF2-0144-0B4A-A13E-5655E2D9640B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021D237E-3B5F-8C45-AE66-41224BDA9EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="5" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -6771,9 +6771,6 @@
     <t>s,h,hr,d,yr,y</t>
   </si>
   <si>
-    <t>pa, torr, barr, atm, psi</t>
-  </si>
-  <si>
     <t>F, C, K</t>
   </si>
   <si>
@@ -6889,6 +6886,9 @@
   </si>
   <si>
     <t>drill-bit</t>
+  </si>
+  <si>
+    <t>pa, torr, barr, atm, psi, psig</t>
   </si>
 </sst>
 </file>
@@ -7618,7 +7618,7 @@
         <v>1733</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -7811,7 +7811,7 @@
         <v>104</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>1742</v>
@@ -7926,7 +7926,7 @@
         <v>197</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -7979,7 +7979,7 @@
         <v>92</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>1760</v>
@@ -8004,7 +8004,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>980</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>87</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -8801,7 +8801,7 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
@@ -8841,7 +8841,7 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
@@ -8971,7 +8971,7 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
@@ -9484,7 +9484,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
@@ -9504,7 +9504,7 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
@@ -10104,7 +10104,7 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
@@ -10289,7 +10289,7 @@
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
@@ -10444,7 +10444,7 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
@@ -10869,12 +10869,12 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
   </sheetData>
@@ -10962,7 +10962,7 @@
         <v>309</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -11142,7 +11142,7 @@
         <v>460</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -11300,7 +11300,7 @@
         <v>475</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
@@ -11314,7 +11314,7 @@
         <v>468</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
@@ -11342,7 +11342,7 @@
         <v>506</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
@@ -11440,7 +11440,7 @@
         <v>444</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
@@ -11619,7 +11619,7 @@
         <v>482</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
@@ -11630,7 +11630,7 @@
         <v>514</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
@@ -11641,7 +11641,7 @@
         <v>515</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
@@ -11652,7 +11652,7 @@
         <v>516</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.15">
@@ -11663,7 +11663,7 @@
         <v>517</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
@@ -11840,7 +11840,7 @@
         <v>1043</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.15">
@@ -11864,7 +11864,7 @@
         <v>1065</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.15">
@@ -11968,7 +11968,7 @@
         <v>413</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.15">
@@ -12101,7 +12101,7 @@
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C106" s="4" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.15">
@@ -12349,7 +12349,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -12941,7 +12941,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>2141</v>
@@ -13908,9 +13908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73C24E4-08A9-144E-9E05-B4149879DA22}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -13933,7 +13933,7 @@
         <v>2219</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -14254,7 +14254,7 @@
         <v>850</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
@@ -14515,7 +14515,7 @@
         <v>930</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2242</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -14603,7 +14603,7 @@
         <v>849</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
@@ -14684,7 +14684,7 @@
         <v>957</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
@@ -16981,7 +16981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+    <sheetView zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
@@ -17196,7 +17196,7 @@
         <v>1856</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/raven/plugins/SR2ML/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021D237E-3B5F-8C45-AE66-41224BDA9EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6270BED7-EC15-CD40-AF1A-69FF80FB621F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="5" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="45780" yWindow="-820" windowWidth="35840" windowHeight="20700" activeTab="5" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="2327">
   <si>
     <t>welded joint</t>
   </si>
@@ -6888,7 +6888,142 @@
     <t>drill-bit</t>
   </si>
   <si>
-    <t>pa, torr, barr, atm, psi, psig</t>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>upkeep</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>lubrication</t>
+  </si>
+  <si>
+    <t>repackaging</t>
+  </si>
+  <si>
+    <t>installation</t>
+  </si>
+  <si>
+    <t>reinstallation</t>
+  </si>
+  <si>
+    <t>updating</t>
+  </si>
+  <si>
+    <t>ultrasonic analysis</t>
+  </si>
+  <si>
+    <t>infrared analysis</t>
+  </si>
+  <si>
+    <t>oil analysis</t>
+  </si>
+  <si>
+    <t>laser shaft alignment</t>
+  </si>
+  <si>
+    <t>Electronic Signature Analysis (ESA)</t>
+  </si>
+  <si>
+    <t>Motor circuit analysis</t>
+  </si>
+  <si>
+    <t>greasing</t>
+  </si>
+  <si>
+    <t>Tightening</t>
+  </si>
+  <si>
+    <t>rewinding</t>
+  </si>
+  <si>
+    <t>scaffold</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>loader</t>
+  </si>
+  <si>
+    <t>pallet</t>
+  </si>
+  <si>
+    <t>shovel</t>
+  </si>
+  <si>
+    <t>stacker</t>
+  </si>
+  <si>
+    <t>pallet truck</t>
+  </si>
+  <si>
+    <t>pallet jacker</t>
+  </si>
+  <si>
+    <t>pallet jack</t>
+  </si>
+  <si>
+    <t>dolly</t>
+  </si>
+  <si>
+    <t>Hoist</t>
+  </si>
+  <si>
+    <t>Forklift</t>
+  </si>
+  <si>
+    <t>Lifting Table</t>
+  </si>
+  <si>
+    <t>lifting platform</t>
+  </si>
+  <si>
+    <t>Hydraulic Elevator</t>
+  </si>
+  <si>
+    <t>Scissor Lift</t>
+  </si>
+  <si>
+    <t>Boom Lifts</t>
+  </si>
+  <si>
+    <t>telehandler</t>
+  </si>
+  <si>
+    <t>telescopic handler</t>
+  </si>
+  <si>
+    <t>handler</t>
+  </si>
+  <si>
+    <t>winch</t>
+  </si>
+  <si>
+    <t>A, Ampere</t>
+  </si>
+  <si>
+    <t>ohm</t>
+  </si>
+  <si>
+    <t>V, volt</t>
+  </si>
+  <si>
+    <t>DC voltage</t>
+  </si>
+  <si>
+    <t>AC voltage</t>
+  </si>
+  <si>
+    <t>Pa, torr, barr, atm, psi, psig</t>
   </si>
 </sst>
 </file>
@@ -7296,11 +7431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B95B5C9-73CA-064E-9671-6487BA59A617}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9062,6 +9197,16 @@
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
         <v>2239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="4" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" s="4" t="s">
+        <v>2301</v>
       </c>
     </row>
   </sheetData>
@@ -12552,11 +12697,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -13375,133 +13520,187 @@
       <c r="A102" s="4" t="s">
         <v>1957</v>
       </c>
+      <c r="B102" s="4" t="s">
+        <v>2281</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>2048</v>
       </c>
+      <c r="B103" s="4" t="s">
+        <v>2282</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>1977</v>
       </c>
+      <c r="B104" s="4" t="s">
+        <v>2283</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>1963</v>
       </c>
+      <c r="B105" s="4" t="s">
+        <v>2284</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>2007</v>
       </c>
+      <c r="B106" s="4" t="s">
+        <v>2285</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>2082</v>
       </c>
+      <c r="B107" s="4" t="s">
+        <v>2286</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>2028</v>
       </c>
+      <c r="B108" s="4" t="s">
+        <v>2287</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>2055</v>
       </c>
+      <c r="B109" s="4" t="s">
+        <v>2288</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>2101</v>
       </c>
+      <c r="B110" s="4" t="s">
+        <v>2289</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>2095</v>
       </c>
+      <c r="B111" s="4" t="s">
+        <v>2290</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B112" s="4" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>2079</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B113" s="4" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B114" s="4" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B115" s="4" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B116" s="4" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B117" s="4" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B118" s="4" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B119" s="4" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>2071</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>2072</v>
       </c>
@@ -13894,6 +14093,111 @@
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
         <v>1913</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" s="4" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" s="4" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" s="4" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" s="4" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" s="4" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" s="4" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" s="4" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" s="4" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" s="4" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" s="4" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="4" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="4" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="4" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="4" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" s="4" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" s="4" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" s="4" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" s="4" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" s="4" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" s="4" t="s">
+        <v>2320</v>
       </c>
     </row>
   </sheetData>
@@ -13909,8 +14213,8 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -13992,6 +14296,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>2325</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>1140</v>
       </c>
@@ -14000,6 +14307,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>2324</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>1140</v>
       </c>
@@ -14071,7 +14381,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>1651</v>
       </c>
@@ -14079,7 +14389,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>396</v>
       </c>
@@ -14087,7 +14397,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>976</v>
       </c>
@@ -14095,7 +14405,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>1659</v>
       </c>
@@ -14103,7 +14413,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>1647</v>
       </c>
@@ -14111,7 +14421,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>395</v>
       </c>
@@ -14119,132 +14429,138 @@
         <v>864</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C23" s="4" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="4" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C26" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C27" s="4" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C28" s="4" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C29" s="4" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C30" s="4" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C32" s="4" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" s="4" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C35" s="4" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C36" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C37" s="4" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C38" s="4" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C39" s="4" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C40" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C41" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C42" s="4" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D42" s="4" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C43" s="4" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C44" s="4" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C45" s="4" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C46" s="4" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C47" s="4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C48" s="4" t="s">
         <v>848</v>
       </c>
@@ -14515,7 +14831,7 @@
         <v>930</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2281</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -14652,6 +14968,9 @@
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C126" s="4" t="s">
         <v>858</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>2323</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
@@ -16982,8 +17301,8 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/raven/plugins/SR2ML/src/nlp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC33C5CC-6AE3-3C4C-9112-C0DD2747A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF4A76E-D503-AE44-AEF9-7AC40B5860A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="2" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="8" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="operands" sheetId="3" r:id="rId6"/>
     <sheet name="materials_compounds" sheetId="5" r:id="rId7"/>
     <sheet name="reaction" sheetId="7" r:id="rId8"/>
+    <sheet name="organizations" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="2288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="2360">
   <si>
     <t>welded joint</t>
   </si>
@@ -6907,6 +6908,222 @@
   </si>
   <si>
     <t>Acid base reaction</t>
+  </si>
+  <si>
+    <t>NRC</t>
+  </si>
+  <si>
+    <t>ASME</t>
+  </si>
+  <si>
+    <t>INPO</t>
+  </si>
+  <si>
+    <t>NEI</t>
+  </si>
+  <si>
+    <t>IAEA</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>NEA</t>
+  </si>
+  <si>
+    <t>JAEA</t>
+  </si>
+  <si>
+    <t>INL</t>
+  </si>
+  <si>
+    <t>ORNL</t>
+  </si>
+  <si>
+    <t>ANL</t>
+  </si>
+  <si>
+    <t>SNL</t>
+  </si>
+  <si>
+    <t>LLNL</t>
+  </si>
+  <si>
+    <t>BNL</t>
+  </si>
+  <si>
+    <t>ANS</t>
+  </si>
+  <si>
+    <t>EPRI</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>GRS</t>
+  </si>
+  <si>
+    <t>WANO</t>
+  </si>
+  <si>
+    <t>Nuclear Energy Institute</t>
+  </si>
+  <si>
+    <t>Nuclear Energy Agency</t>
+  </si>
+  <si>
+    <t>American Nuclear Society</t>
+  </si>
+  <si>
+    <t>idaho national laboratory</t>
+  </si>
+  <si>
+    <t>oak ridge national laboratory</t>
+  </si>
+  <si>
+    <t>sandia national laboratories</t>
+  </si>
+  <si>
+    <t>lawrence livermore national laboratory</t>
+  </si>
+  <si>
+    <t>brookhaven national laboratory</t>
+  </si>
+  <si>
+    <t>International Atomic Energy Agency</t>
+  </si>
+  <si>
+    <t>DOE</t>
+  </si>
+  <si>
+    <t>department of energy</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>department of transportation</t>
+  </si>
+  <si>
+    <t>Institute of Nuclear Power Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEA </t>
+  </si>
+  <si>
+    <t>International Energy Agency</t>
+  </si>
+  <si>
+    <t>Electric Power Research Institute</t>
+  </si>
+  <si>
+    <t>Organisation for Economic Co-operation and Development </t>
+  </si>
+  <si>
+    <t>Nuclear Regulatory Commission</t>
+  </si>
+  <si>
+    <t>American Society of Mechanical Engineers</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
+  <si>
+    <t>ANSI</t>
+  </si>
+  <si>
+    <t>American National Standards Institute </t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>ASCE</t>
+  </si>
+  <si>
+    <t>American Society of Civil Engineers</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>American Concrete Institute</t>
+  </si>
+  <si>
+    <t>NCEES</t>
+  </si>
+  <si>
+    <t>National Council of Examiners for Engineering and Surveying</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology</t>
+  </si>
+  <si>
+    <t>World Association of Nuclear Operators</t>
+  </si>
+  <si>
+    <t>World Nuclear Association</t>
+  </si>
+  <si>
+    <t>WNA</t>
+  </si>
+  <si>
+    <t>Japan Atomic Energy Agency</t>
+  </si>
+  <si>
+    <t>WNTI</t>
+  </si>
+  <si>
+    <t>World Nuclear Transport Institute</t>
+  </si>
+  <si>
+    <t>ENS</t>
+  </si>
+  <si>
+    <t>European Nuclear Society</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Canadian Nuclear Association</t>
+  </si>
+  <si>
+    <t>ROSATOM</t>
+  </si>
+  <si>
+    <t>NIA</t>
+  </si>
+  <si>
+    <t>Nuclear Industry Association</t>
+  </si>
+  <si>
+    <t>ICRP</t>
+  </si>
+  <si>
+    <t>International Commission on Radiological Protection</t>
+  </si>
+  <si>
+    <t>Institute of Electrical and Electronics Engineers</t>
+  </si>
+  <si>
+    <t>American Welding Society</t>
+  </si>
+  <si>
+    <t>Argonne National Laboratory</t>
+  </si>
+  <si>
+    <t>IISE</t>
+  </si>
+  <si>
+    <t>Institute of Industrial and Systems Engineers </t>
+  </si>
+  <si>
+    <t>ASNT</t>
+  </si>
+  <si>
+    <t>American Society for Nondestructive Testing</t>
   </si>
 </sst>
 </file>
@@ -11026,9 +11243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37BA1C4-E891-264D-AF0F-C27B89E85559}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+    <sheetView zoomScale="161" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17481,4 +17698,316 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7295C08-115E-584A-9B75-D0B6BE6B15F7}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="335" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B37">
+    <sortCondition ref="A1:A37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DF9D36-D6E6-1640-A92C-38DD015EF66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5620BA25-B2EC-264C-9693-9285669CEC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48140" yWindow="-2880" windowWidth="35840" windowHeight="20700" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="48140" yWindow="-2880" windowWidth="35840" windowHeight="20700" activeTab="8" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="2358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="2356">
   <si>
     <t>welded joint</t>
   </si>
@@ -6986,12 +6986,6 @@
   </si>
   <si>
     <t>European Nuclear Society</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>Canadian Nuclear Association</t>
   </si>
   <si>
     <t>ROSATOM</t>
@@ -7543,16 +7537,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2350</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2351</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2352</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2353</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -8432,7 +8426,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>228</v>
@@ -9242,10 +9236,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -11248,22 +11242,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2345</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2337</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2338</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>2346</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2347</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>2348</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -12268,10 +12262,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -12364,7 +12358,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1072</v>
@@ -12452,7 +12446,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1084</v>
@@ -12677,10 +12671,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -14176,16 +14170,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2337</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2339</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -15026,16 +15020,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2334</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2335</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2333</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2336</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -17159,7 +17153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+    <sheetView zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
@@ -17174,13 +17168,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2330</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2331</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -17681,7 +17675,7 @@
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
   </sheetData>
@@ -17694,11 +17688,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7295C08-115E-584A-9B75-D0B6BE6B15F7}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView zoomScale="206" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17709,10 +17703,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B1" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -17728,7 +17722,7 @@
         <v>2266</v>
       </c>
       <c r="B3" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -17765,10 +17759,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B8" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -17776,7 +17770,7 @@
         <v>2298</v>
       </c>
       <c r="B9" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -17789,225 +17783,217 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2314</v>
+        <v>2284</v>
       </c>
       <c r="B11" t="s">
-        <v>2315</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="B12" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2286</v>
+        <v>2312</v>
       </c>
       <c r="B13" t="s">
-        <v>2287</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2312</v>
+        <v>2271</v>
       </c>
       <c r="B14" t="s">
-        <v>2313</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2271</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2291</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2273</v>
+        <v>2260</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2283</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2260</v>
+        <v>2317</v>
       </c>
       <c r="B17" t="s">
-        <v>2283</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2319</v>
+        <v>2289</v>
       </c>
       <c r="B18" t="s">
-        <v>2320</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2289</v>
+        <v>2261</v>
       </c>
       <c r="B19" t="s">
-        <v>2290</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2261</v>
+        <v>2322</v>
       </c>
       <c r="B20" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2324</v>
+        <v>2264</v>
       </c>
       <c r="B21" t="s">
-        <v>2325</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="B22" t="s">
-        <v>2278</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2258</v>
+        <v>2263</v>
       </c>
       <c r="B23" t="s">
-        <v>2288</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2263</v>
+        <v>2268</v>
       </c>
       <c r="B24" t="s">
-        <v>2309</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2268</v>
+        <v>2303</v>
       </c>
       <c r="B25" t="s">
-        <v>2281</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2303</v>
+        <v>2262</v>
       </c>
       <c r="B26" t="s">
-        <v>2304</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="B27" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2259</v>
+        <v>2315</v>
       </c>
       <c r="B28" t="s">
-        <v>2275</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2317</v>
+        <v>2295</v>
       </c>
       <c r="B29" t="s">
-        <v>2318</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2295</v>
+        <v>2256</v>
       </c>
       <c r="B30" t="s">
-        <v>2305</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2256</v>
+        <v>2272</v>
       </c>
       <c r="B31" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="B32" t="s">
-        <v>2292</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2265</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2279</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2316</v>
+        <v>2267</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2280</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
       <c r="B35" t="s">
-        <v>2280</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2274</v>
+        <v>2308</v>
       </c>
       <c r="B36" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="B37" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>2310</v>
-      </c>
-      <c r="B38" t="s">
         <v>2311</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B38">
-    <sortCondition ref="A2:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/raven/plugins/SR2ML/src/nlp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC33C5CC-6AE3-3C4C-9112-C0DD2747A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3266F7-D3A1-3945-A2DA-A72701C44DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="2" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="38060" yWindow="1500" windowWidth="35840" windowHeight="20700" activeTab="4" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="2288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="2290">
   <si>
     <t>welded joint</t>
   </si>
@@ -6907,6 +6907,12 @@
   </si>
   <si>
     <t>Acid base reaction</t>
+  </si>
+  <si>
+    <t>local leakage rate testing (LLRT)</t>
+  </si>
+  <si>
+    <t>Integrated leakage rate testing (ILRT)</t>
   </si>
 </sst>
 </file>
@@ -11026,7 +11032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37BA1C4-E891-264D-AF0F-C27B89E85559}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+    <sheetView zoomScale="161" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
@@ -12459,9 +12465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -13418,10 +13424,16 @@
       <c r="A120" s="4" t="s">
         <v>1958</v>
       </c>
+      <c r="B120" s="4" t="s">
+        <v>2288</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>1888</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>2289</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3266F7-D3A1-3945-A2DA-A72701C44DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86648BEF-F329-2B47-93D3-E703D942DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38060" yWindow="1500" windowWidth="35840" windowHeight="20700" activeTab="4" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="4360" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="2309">
   <si>
     <t>welded joint</t>
   </si>
@@ -6913,13 +6913,70 @@
   </si>
   <si>
     <t>Integrated leakage rate testing (ILRT)</t>
+  </si>
+  <si>
+    <t>wastage</t>
+  </si>
+  <si>
+    <t>pitting</t>
+  </si>
+  <si>
+    <t>Flow Accelerated Corrosion (FAC)</t>
+  </si>
+  <si>
+    <t>Fouling</t>
+  </si>
+  <si>
+    <t>Low Temperature Creep Cracking (LTCC)</t>
+  </si>
+  <si>
+    <t>Outside Diameter SCC (ODSCC)</t>
+  </si>
+  <si>
+    <t>Irradiation Assisted SCC (IASCC)</t>
+  </si>
+  <si>
+    <t>Intergranular SCC (IG)</t>
+  </si>
+  <si>
+    <t>Transgranular SCC (TG)</t>
+  </si>
+  <si>
+    <t>Delayed Hydride Cracking (DHC)</t>
+  </si>
+  <si>
+    <t>High Cycle Fatigue (HC)</t>
+  </si>
+  <si>
+    <t>Low Cycle Fatigue (LC)</t>
+  </si>
+  <si>
+    <t>Environmentally Assisted Fatigue (EAF)</t>
+  </si>
+  <si>
+    <t>Thermal Aging Embrittlement</t>
+  </si>
+  <si>
+    <t>Embrittlement</t>
+  </si>
+  <si>
+    <t>Irradiation Embrittlement</t>
+  </si>
+  <si>
+    <t>Void Swelling</t>
+  </si>
+  <si>
+    <t>Irradiation Creep (IC)</t>
+  </si>
+  <si>
+    <t>Stress Relaxation (SC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6965,6 +7022,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6986,7 +7055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7006,6 +7075,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12465,9 +12536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -16965,11 +17036,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17487,6 +17558,101 @@
         <v>2285</v>
       </c>
     </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="4" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="4" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B84" s="12" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="4" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="4" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="4" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="4" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" s="4" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="4" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="4" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="4" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94" s="11" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="4" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="4" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="4" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="4" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="4" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="4" t="s">
+        <v>2308</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B82">
     <sortCondition ref="B1:B82"/>

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86648BEF-F329-2B47-93D3-E703D942DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBD7C5-967B-F249-BAFC-39353FD657EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="4" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="2310">
   <si>
     <t>welded joint</t>
   </si>
@@ -6970,6 +6970,9 @@
   </si>
   <si>
     <t>Stress Relaxation (SC)</t>
+  </si>
+  <si>
+    <t>walkdown</t>
   </si>
 </sst>
 </file>
@@ -12536,9 +12539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -13510,6 +13513,9 @@
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>1862</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>2309</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -17038,7 +17044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+    <sheetView zoomScale="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBD7C5-967B-F249-BAFC-39353FD657EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D74FF79-D189-804A-8EA8-A40E8490A1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="4" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="2310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="2325">
   <si>
     <t>welded joint</t>
   </si>
@@ -6973,6 +6973,51 @@
   </si>
   <si>
     <t>walkdown</t>
+  </si>
+  <si>
+    <t>letdown</t>
+  </si>
+  <si>
+    <t>destack</t>
+  </si>
+  <si>
+    <t>detension</t>
+  </si>
+  <si>
+    <t>desludge</t>
+  </si>
+  <si>
+    <t>devitalize</t>
+  </si>
+  <si>
+    <t>detorque</t>
+  </si>
+  <si>
+    <t>bolting</t>
+  </si>
+  <si>
+    <t>retermination</t>
+  </si>
+  <si>
+    <t>backflush</t>
+  </si>
+  <si>
+    <t>restage</t>
+  </si>
+  <si>
+    <t>prestage</t>
+  </si>
+  <si>
+    <t>retension</t>
+  </si>
+  <si>
+    <t>defuel</t>
+  </si>
+  <si>
+    <t>decouple</t>
+  </si>
+  <si>
+    <t>recouple</t>
   </si>
 </sst>
 </file>
@@ -12540,8 +12585,8 @@
   <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -13522,103 +13567,150 @@
       <c r="A123" s="4" t="s">
         <v>1861</v>
       </c>
+      <c r="B123" s="4" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B124" s="4" t="s">
+        <v>2311</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>1948</v>
       </c>
+      <c r="B125" s="4" t="s">
+        <v>2312</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>1949</v>
       </c>
+      <c r="B126" s="4" t="s">
+        <v>2313</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>2013</v>
       </c>
+      <c r="B127" s="4" t="s">
+        <v>2314</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B128" s="4" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B129" s="4" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B130" s="4" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B131" s="4" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B132" s="4" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B133" s="4" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B134" s="4" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B135" s="4" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B136" s="4" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B137" s="4" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>1962</v>
       </c>

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D74FF79-D189-804A-8EA8-A40E8490A1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200997D-3CAF-BD4C-B760-7C5049D67FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="4" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="2325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="2344">
   <si>
     <t>welded joint</t>
   </si>
@@ -5283,9 +5283,6 @@
     <t>Precipitation</t>
   </si>
   <si>
-    <t>Photochemical reaction</t>
-  </si>
-  <si>
     <t>Catalysis</t>
   </si>
   <si>
@@ -6903,9 +6900,6 @@
     <t>defect</t>
   </si>
   <si>
-    <t>Solid state reaction</t>
-  </si>
-  <si>
     <t>Acid base reaction</t>
   </si>
   <si>
@@ -7018,6 +7012,69 @@
   </si>
   <si>
     <t>recouple</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>leakage</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>hydrolysis</t>
+  </si>
+  <si>
+    <t>cannizzaro</t>
+  </si>
+  <si>
+    <t>etard</t>
+  </si>
+  <si>
+    <t>claisen</t>
+  </si>
+  <si>
+    <t>salt metathesis</t>
+  </si>
+  <si>
+    <t>neutralization</t>
+  </si>
+  <si>
+    <t>condensation</t>
+  </si>
+  <si>
+    <t>boiling</t>
+  </si>
+  <si>
+    <t>Aldol condensation</t>
+  </si>
+  <si>
+    <t>evaporation</t>
+  </si>
+  <si>
+    <t>solidification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehydration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucleophilic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haloform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbylamine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrophilic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photochemical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid state </t>
   </si>
 </sst>
 </file>
@@ -7103,7 +7160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7125,6 +7182,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7458,16 +7518,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2143</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>2142</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2144</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -7662,7 +7722,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>247</v>
@@ -7755,7 +7815,7 @@
         <v>1682</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -7945,7 +8005,7 @@
         <v>101</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>1691</v>
@@ -8057,7 +8117,7 @@
         <v>193</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -8110,7 +8170,7 @@
         <v>249</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>1708</v>
@@ -8121,7 +8181,7 @@
         <v>313</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>212</v>
@@ -8350,7 +8410,7 @@
         <v>169</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>1673</v>
@@ -8556,7 +8616,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>231</v>
@@ -8614,7 +8674,7 @@
         <v>275</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>198</v>
@@ -8630,7 +8690,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>97</v>
@@ -8774,7 +8834,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
@@ -8829,7 +8889,7 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
@@ -8884,7 +8944,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
@@ -8914,7 +8974,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
@@ -9044,7 +9104,7 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
@@ -9104,7 +9164,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
@@ -9163,10 +9223,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2146</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -9596,12 +9656,12 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
@@ -9621,7 +9681,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
@@ -9841,7 +9901,7 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
@@ -10281,7 +10341,7 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
@@ -10341,7 +10401,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
@@ -10481,7 +10541,7 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
@@ -10546,7 +10606,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
@@ -10691,7 +10751,7 @@
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
@@ -10756,7 +10816,7 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
@@ -10801,7 +10861,7 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
@@ -10856,7 +10916,7 @@
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
@@ -11169,22 +11229,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2148</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2149</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2151</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>2152</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -11224,7 +11284,7 @@
         <v>303</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -11341,7 +11401,7 @@
         <v>515</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>398</v>
@@ -11378,7 +11438,7 @@
         <v>1038</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>446</v>
@@ -11401,7 +11461,7 @@
         <v>351</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -11412,7 +11472,7 @@
         <v>988</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>450</v>
@@ -11507,7 +11567,7 @@
         <v>318</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
@@ -11518,7 +11578,7 @@
         <v>409</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
@@ -11540,7 +11600,7 @@
         <v>319</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
@@ -11617,7 +11677,7 @@
         <v>1020</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
@@ -11679,7 +11739,7 @@
         <v>1047</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
@@ -11735,7 +11795,7 @@
         <v>954</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
@@ -11743,7 +11803,7 @@
         <v>416</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
@@ -11751,7 +11811,7 @@
         <v>1053</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.15">
@@ -11759,7 +11819,7 @@
         <v>335</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.15">
@@ -11767,7 +11827,7 @@
         <v>1019</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.15">
@@ -11903,7 +11963,7 @@
         <v>1018</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
@@ -11927,7 +11987,7 @@
         <v>1040</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
@@ -12023,7 +12083,7 @@
         <v>1017</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.15">
@@ -12150,7 +12210,7 @@
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C103" s="4" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
@@ -12189,10 +12249,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2154</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -12248,7 +12308,7 @@
         <v>1635</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12394,17 +12454,17 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -12584,8 +12644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
@@ -12598,159 +12658,159 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2156</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -12758,52 +12818,52 @@
         <v>349</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1549</v>
@@ -12811,268 +12871,268 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -13080,303 +13140,303 @@
         <v>937</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -13384,395 +13444,395 @@
         <v>311</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
@@ -13782,247 +13842,247 @@
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
@@ -14032,97 +14092,97 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
   </sheetData>
@@ -14153,16 +14213,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2158</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2159</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2160</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -14192,13 +14252,13 @@
         <v>812</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>849</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -14225,7 +14285,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1598</v>
@@ -14236,7 +14296,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>951</v>
@@ -14245,7 +14305,7 @@
         <v>836</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -14266,7 +14326,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>852</v>
@@ -14274,13 +14334,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>853</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -14375,7 +14435,7 @@
         <v>834</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
@@ -14468,7 +14528,7 @@
         <v>872</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
@@ -14476,7 +14536,7 @@
         <v>873</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
@@ -14504,7 +14564,7 @@
         <v>827</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
@@ -14517,7 +14577,7 @@
         <v>876</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
@@ -14525,7 +14585,7 @@
         <v>877</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
@@ -14600,7 +14660,7 @@
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
@@ -14615,12 +14675,12 @@
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
@@ -14678,7 +14738,7 @@
         <v>828</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
@@ -14766,7 +14826,7 @@
         <v>907</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -14854,7 +14914,7 @@
         <v>826</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
@@ -14887,7 +14947,7 @@
         <v>833</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
@@ -14895,7 +14955,7 @@
         <v>926</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
@@ -14903,7 +14963,7 @@
         <v>927</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
@@ -14911,7 +14971,7 @@
         <v>835</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
@@ -14919,7 +14979,7 @@
         <v>928</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
@@ -14927,7 +14987,7 @@
         <v>929</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
@@ -14950,7 +15010,7 @@
         <v>933</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
@@ -14965,15 +15025,15 @@
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C135" s="4" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C136" s="4" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>2283</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -15003,16 +15063,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2161</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2162</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -15373,7 +15433,7 @@
         <v>1484</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -15384,7 +15444,7 @@
         <v>1479</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -15395,7 +15455,7 @@
         <v>1516</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -15406,7 +15466,7 @@
         <v>1530</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -15417,7 +15477,7 @@
         <v>1315</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -15428,7 +15488,7 @@
         <v>1503</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -15439,7 +15499,7 @@
         <v>1480</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -15571,7 +15631,7 @@
         <v>1444</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -17136,9 +17196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17151,13 +17211,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2164</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2165</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -17165,10 +17225,10 @@
         <v>1736</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -17176,10 +17236,10 @@
         <v>1737</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -17187,10 +17247,10 @@
         <v>1738</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -17198,10 +17258,10 @@
         <v>1739</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -17209,10 +17269,10 @@
         <v>1740</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -17220,10 +17280,10 @@
         <v>1741</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -17231,10 +17291,10 @@
         <v>1742</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -17242,10 +17302,10 @@
         <v>1743</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -17253,21 +17313,21 @@
         <v>1744</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -17275,480 +17335,540 @@
         <v>1745</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>2286</v>
+        <v>2343</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>1746</v>
+        <v>2342</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>1740</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>2325</v>
+      </c>
       <c r="B17" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="4" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="4" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="4" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="4" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="4" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="4" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
         <v>1813</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="4" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="4" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="4" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="4" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="4" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="4" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="4" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="4" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="4" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="4" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="4" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="4" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="4" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="4" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="4" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" s="4" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" s="4" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" s="4" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="11" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" s="4" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" s="4" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
   </sheetData>

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/raven/plugins/SR2ML/src/nlp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC33C5CC-6AE3-3C4C-9112-C0DD2747A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200997D-3CAF-BD4C-B760-7C5049D67FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="2" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="2288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="2344">
   <si>
     <t>welded joint</t>
   </si>
@@ -5283,9 +5283,6 @@
     <t>Precipitation</t>
   </si>
   <si>
-    <t>Photochemical reaction</t>
-  </si>
-  <si>
     <t>Catalysis</t>
   </si>
   <si>
@@ -6903,17 +6900,188 @@
     <t>defect</t>
   </si>
   <si>
-    <t>Solid state reaction</t>
-  </si>
-  <si>
     <t>Acid base reaction</t>
+  </si>
+  <si>
+    <t>local leakage rate testing (LLRT)</t>
+  </si>
+  <si>
+    <t>Integrated leakage rate testing (ILRT)</t>
+  </si>
+  <si>
+    <t>wastage</t>
+  </si>
+  <si>
+    <t>pitting</t>
+  </si>
+  <si>
+    <t>Flow Accelerated Corrosion (FAC)</t>
+  </si>
+  <si>
+    <t>Fouling</t>
+  </si>
+  <si>
+    <t>Low Temperature Creep Cracking (LTCC)</t>
+  </si>
+  <si>
+    <t>Outside Diameter SCC (ODSCC)</t>
+  </si>
+  <si>
+    <t>Irradiation Assisted SCC (IASCC)</t>
+  </si>
+  <si>
+    <t>Intergranular SCC (IG)</t>
+  </si>
+  <si>
+    <t>Transgranular SCC (TG)</t>
+  </si>
+  <si>
+    <t>Delayed Hydride Cracking (DHC)</t>
+  </si>
+  <si>
+    <t>High Cycle Fatigue (HC)</t>
+  </si>
+  <si>
+    <t>Low Cycle Fatigue (LC)</t>
+  </si>
+  <si>
+    <t>Environmentally Assisted Fatigue (EAF)</t>
+  </si>
+  <si>
+    <t>Thermal Aging Embrittlement</t>
+  </si>
+  <si>
+    <t>Embrittlement</t>
+  </si>
+  <si>
+    <t>Irradiation Embrittlement</t>
+  </si>
+  <si>
+    <t>Void Swelling</t>
+  </si>
+  <si>
+    <t>Irradiation Creep (IC)</t>
+  </si>
+  <si>
+    <t>Stress Relaxation (SC)</t>
+  </si>
+  <si>
+    <t>walkdown</t>
+  </si>
+  <si>
+    <t>letdown</t>
+  </si>
+  <si>
+    <t>destack</t>
+  </si>
+  <si>
+    <t>detension</t>
+  </si>
+  <si>
+    <t>desludge</t>
+  </si>
+  <si>
+    <t>devitalize</t>
+  </si>
+  <si>
+    <t>detorque</t>
+  </si>
+  <si>
+    <t>bolting</t>
+  </si>
+  <si>
+    <t>retermination</t>
+  </si>
+  <si>
+    <t>backflush</t>
+  </si>
+  <si>
+    <t>restage</t>
+  </si>
+  <si>
+    <t>prestage</t>
+  </si>
+  <si>
+    <t>retension</t>
+  </si>
+  <si>
+    <t>defuel</t>
+  </si>
+  <si>
+    <t>decouple</t>
+  </si>
+  <si>
+    <t>recouple</t>
+  </si>
+  <si>
+    <t>leak</t>
+  </si>
+  <si>
+    <t>leakage</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>hydrolysis</t>
+  </si>
+  <si>
+    <t>cannizzaro</t>
+  </si>
+  <si>
+    <t>etard</t>
+  </si>
+  <si>
+    <t>claisen</t>
+  </si>
+  <si>
+    <t>salt metathesis</t>
+  </si>
+  <si>
+    <t>neutralization</t>
+  </si>
+  <si>
+    <t>condensation</t>
+  </si>
+  <si>
+    <t>boiling</t>
+  </si>
+  <si>
+    <t>Aldol condensation</t>
+  </si>
+  <si>
+    <t>evaporation</t>
+  </si>
+  <si>
+    <t>solidification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehydration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucleophilic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haloform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbylamine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrophilic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photochemical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid state </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6959,6 +7127,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6980,7 +7160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6999,6 +7179,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7333,16 +7518,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2143</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>2142</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2144</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -7537,7 +7722,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>247</v>
@@ -7630,7 +7815,7 @@
         <v>1682</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -7820,7 +8005,7 @@
         <v>101</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>1691</v>
@@ -7932,7 +8117,7 @@
         <v>193</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -7985,7 +8170,7 @@
         <v>249</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>1708</v>
@@ -7996,7 +8181,7 @@
         <v>313</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>212</v>
@@ -8225,7 +8410,7 @@
         <v>169</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>1673</v>
@@ -8431,7 +8616,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>231</v>
@@ -8489,7 +8674,7 @@
         <v>275</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>198</v>
@@ -8505,7 +8690,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>97</v>
@@ -8649,7 +8834,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
@@ -8704,7 +8889,7 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
@@ -8759,7 +8944,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
@@ -8789,7 +8974,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
@@ -8919,7 +9104,7 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
@@ -8979,7 +9164,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
@@ -9038,10 +9223,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2146</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -9471,12 +9656,12 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
@@ -9496,7 +9681,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
@@ -9716,7 +9901,7 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
@@ -10156,7 +10341,7 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
@@ -10216,7 +10401,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
@@ -10356,7 +10541,7 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
@@ -10421,7 +10606,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
@@ -10566,7 +10751,7 @@
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
@@ -10631,7 +10816,7 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
@@ -10676,7 +10861,7 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
@@ -10731,7 +10916,7 @@
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
@@ -11026,7 +11211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37BA1C4-E891-264D-AF0F-C27B89E85559}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+    <sheetView zoomScale="161" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
@@ -11044,22 +11229,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2148</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2149</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2151</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>2152</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -11099,7 +11284,7 @@
         <v>303</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -11216,7 +11401,7 @@
         <v>515</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>398</v>
@@ -11253,7 +11438,7 @@
         <v>1038</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>446</v>
@@ -11276,7 +11461,7 @@
         <v>351</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -11287,7 +11472,7 @@
         <v>988</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>450</v>
@@ -11382,7 +11567,7 @@
         <v>318</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
@@ -11393,7 +11578,7 @@
         <v>409</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
@@ -11415,7 +11600,7 @@
         <v>319</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
@@ -11492,7 +11677,7 @@
         <v>1020</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
@@ -11554,7 +11739,7 @@
         <v>1047</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.15">
@@ -11610,7 +11795,7 @@
         <v>954</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
@@ -11618,7 +11803,7 @@
         <v>416</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
@@ -11626,7 +11811,7 @@
         <v>1053</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.15">
@@ -11634,7 +11819,7 @@
         <v>335</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.15">
@@ -11642,7 +11827,7 @@
         <v>1019</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.15">
@@ -11778,7 +11963,7 @@
         <v>1018</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
@@ -11802,7 +11987,7 @@
         <v>1040</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
@@ -11898,7 +12083,7 @@
         <v>1017</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.15">
@@ -12025,7 +12210,7 @@
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C103" s="4" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
@@ -12064,10 +12249,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2154</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -12123,7 +12308,7 @@
         <v>1635</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12269,17 +12454,17 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -12460,8 +12645,8 @@
   <dimension ref="A1:B227"/>
   <sheetViews>
     <sheetView zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -12473,159 +12658,159 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2156</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -12633,52 +12818,52 @@
         <v>349</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1549</v>
@@ -12686,268 +12871,268 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -12955,303 +13140,303 @@
         <v>937</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -13259,339 +13444,395 @@
         <v>311</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>2286</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>2287</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>2307</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B124" s="4" t="s">
+        <v>2309</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>2310</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>2311</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>2312</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="4" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
+      <c r="B130" s="4" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="4" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="4" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="4" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="4" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="4" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="4" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B135" s="4" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+        <v>1912</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+        <v>1925</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
@@ -13601,247 +13842,247 @@
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
@@ -13851,97 +14092,97 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
   </sheetData>
@@ -13972,16 +14213,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2158</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2159</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2160</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -14011,13 +14252,13 @@
         <v>812</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>849</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -14044,7 +14285,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1598</v>
@@ -14055,7 +14296,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>951</v>
@@ -14064,7 +14305,7 @@
         <v>836</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -14085,7 +14326,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>852</v>
@@ -14093,13 +14334,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>853</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -14194,7 +14435,7 @@
         <v>834</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
@@ -14287,7 +14528,7 @@
         <v>872</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
@@ -14295,7 +14536,7 @@
         <v>873</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
@@ -14323,7 +14564,7 @@
         <v>827</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
@@ -14336,7 +14577,7 @@
         <v>876</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
@@ -14344,7 +14585,7 @@
         <v>877</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
@@ -14419,7 +14660,7 @@
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
@@ -14434,12 +14675,12 @@
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
@@ -14497,7 +14738,7 @@
         <v>828</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
@@ -14585,7 +14826,7 @@
         <v>907</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -14673,7 +14914,7 @@
         <v>826</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
@@ -14706,7 +14947,7 @@
         <v>833</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
@@ -14714,7 +14955,7 @@
         <v>926</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
@@ -14722,7 +14963,7 @@
         <v>927</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
@@ -14730,7 +14971,7 @@
         <v>835</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
@@ -14738,7 +14979,7 @@
         <v>928</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
@@ -14746,7 +14987,7 @@
         <v>929</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
@@ -14769,7 +15010,7 @@
         <v>933</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
@@ -14784,15 +15025,15 @@
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C135" s="4" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C136" s="4" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>2283</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -14822,16 +15063,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2161</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2162</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2163</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -15192,7 +15433,7 @@
         <v>1484</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -15203,7 +15444,7 @@
         <v>1479</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -15214,7 +15455,7 @@
         <v>1516</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -15225,7 +15466,7 @@
         <v>1530</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -15236,7 +15477,7 @@
         <v>1315</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -15247,7 +15488,7 @@
         <v>1503</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -15258,7 +15499,7 @@
         <v>1480</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -15390,7 +15631,7 @@
         <v>1444</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -16953,11 +17194,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -16970,13 +17211,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2164</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>2165</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -16984,10 +17225,10 @@
         <v>1736</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -16995,10 +17236,10 @@
         <v>1737</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -17006,10 +17247,10 @@
         <v>1738</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -17017,10 +17258,10 @@
         <v>1739</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -17028,10 +17269,10 @@
         <v>1740</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -17039,10 +17280,10 @@
         <v>1741</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -17050,10 +17291,10 @@
         <v>1742</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -17061,10 +17302,10 @@
         <v>1743</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -17072,21 +17313,21 @@
         <v>1744</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -17094,385 +17335,540 @@
         <v>1745</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>2286</v>
+        <v>2343</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>1746</v>
+        <v>2342</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>1740</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>2325</v>
+      </c>
       <c r="B17" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="4" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="4" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="4" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="4" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="4" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="4" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="4" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
         <v>1813</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="4" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="4" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="4" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="4" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="4" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="4" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="4" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="4" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="4" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="4" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="4" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="4" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="4" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" s="4" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" s="4" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" s="4" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" s="4" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
-        <v>2285</v>
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="4" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="4" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B84" s="12" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B85" s="4" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B86" s="4" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B87" s="4" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B88" s="4" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B89" s="4" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B90" s="4" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="4" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="4" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94" s="11" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="4" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="4" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="4" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B98" s="4" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B99" s="4" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" s="4" t="s">
+        <v>2306</v>
       </c>
     </row>
   </sheetData>

--- a/src/nlp/data/tag_keywords_lists.xlsx
+++ b/src/nlp/data/tag_keywords_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200997D-3CAF-BD4C-B760-7C5049D67FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE3E766-D004-9D4A-B6FF-8929B823E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="7" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="4" xr2:uid="{97522036-D9BC-AD48-9993-E39060B5165E}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_mech" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="2344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="2343">
   <si>
     <t>welded joint</t>
   </si>
@@ -6192,12 +6192,6 @@
     <t>cutting</t>
   </si>
   <si>
-    <t>cleaning</t>
-  </si>
-  <si>
-    <t>plating</t>
-  </si>
-  <si>
     <t>brushing</t>
   </si>
   <si>
@@ -6222,12 +6216,6 @@
     <t>heat-treating</t>
   </si>
   <si>
-    <t>repairing</t>
-  </si>
-  <si>
-    <t>refurbishing</t>
-  </si>
-  <si>
     <t>Hot Blackening</t>
   </si>
   <si>
@@ -6717,9 +6705,6 @@
     <t>lubrication</t>
   </si>
   <si>
-    <t>repackaging</t>
-  </si>
-  <si>
     <t>installation</t>
   </si>
   <si>
@@ -7075,6 +7060,18 @@
   </si>
   <si>
     <t xml:space="preserve">Solid state </t>
+  </si>
+  <si>
+    <t>repack</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>refurbish</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
 </sst>
 </file>
@@ -7518,16 +7515,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -7722,7 +7719,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>247</v>
@@ -7815,7 +7812,7 @@
         <v>1682</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -8005,7 +8002,7 @@
         <v>101</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>1691</v>
@@ -8117,7 +8114,7 @@
         <v>193</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -8170,7 +8167,7 @@
         <v>249</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>1708</v>
@@ -8181,7 +8178,7 @@
         <v>313</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>212</v>
@@ -8616,7 +8613,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>231</v>
@@ -8690,7 +8687,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>97</v>
@@ -8834,7 +8831,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
@@ -8889,7 +8886,7 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
@@ -8944,7 +8941,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
@@ -8974,7 +8971,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
@@ -9104,7 +9101,7 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
@@ -9164,7 +9161,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
@@ -9223,10 +9220,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -9656,12 +9653,12 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
@@ -9681,7 +9678,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
@@ -9901,7 +9898,7 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
@@ -10341,7 +10338,7 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
@@ -10401,7 +10398,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
@@ -10541,7 +10538,7 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
@@ -10606,7 +10603,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
@@ -10751,7 +10748,7 @@
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
@@ -10816,7 +10813,7 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
@@ -10861,7 +10858,7 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
@@ -11229,22 +11226,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2147</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>2148</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2150</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2151</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2152</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -11284,7 +11281,7 @@
         <v>303</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -11438,7 +11435,7 @@
         <v>1038</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>446</v>
@@ -11461,7 +11458,7 @@
         <v>351</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -11472,7 +11469,7 @@
         <v>988</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>450</v>
@@ -11567,7 +11564,7 @@
         <v>318</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
@@ -11578,7 +11575,7 @@
         <v>409</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
@@ -11600,7 +11597,7 @@
         <v>319</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
@@ -11677,7 +11674,7 @@
         <v>1020</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
@@ -11795,7 +11792,7 @@
         <v>954</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.15">
@@ -11803,7 +11800,7 @@
         <v>416</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.15">
@@ -11811,7 +11808,7 @@
         <v>1053</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.15">
@@ -11819,7 +11816,7 @@
         <v>335</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.15">
@@ -11827,7 +11824,7 @@
         <v>1019</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.15">
@@ -11963,7 +11960,7 @@
         <v>1018</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.15">
@@ -11987,7 +11984,7 @@
         <v>1040</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
@@ -12083,7 +12080,7 @@
         <v>1017</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.15">
@@ -12210,7 +12207,7 @@
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C103" s="4" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.15">
@@ -12249,10 +12246,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -12308,7 +12305,7 @@
         <v>1635</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12454,7 +12451,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -12644,9 +12641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1502DAD1-7392-8F4F-91D6-E58A00062B27}">
   <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView zoomScale="182" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -12658,10 +12655,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -12714,7 +12711,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2008</v>
@@ -12754,7 +12751,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2047</v>
@@ -12762,7 +12759,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>2048</v>
@@ -12770,10 +12767,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2059</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -12781,15 +12778,15 @@
         <v>2024</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2060</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2049</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -12797,20 +12794,20 @@
         <v>2043</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2050</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -12818,7 +12815,7 @@
         <v>349</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -12826,7 +12823,7 @@
         <v>1967</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -12834,7 +12831,7 @@
         <v>1933</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -12842,7 +12839,7 @@
         <v>2039</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -12850,7 +12847,7 @@
         <v>1978</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -12858,7 +12855,7 @@
         <v>1932</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -12874,23 +12871,23 @@
         <v>1984</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -12898,12 +12895,12 @@
         <v>1931</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -12911,7 +12908,7 @@
         <v>1873</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -12919,15 +12916,15 @@
         <v>1995</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -12935,15 +12932,15 @@
         <v>1966</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -12951,7 +12948,7 @@
         <v>1913</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -12959,7 +12956,7 @@
         <v>1937</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -12967,7 +12964,7 @@
         <v>1918</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -12975,15 +12972,15 @@
         <v>1934</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -12991,7 +12988,7 @@
         <v>1955</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -12999,7 +12996,7 @@
         <v>1880</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -13007,12 +13004,12 @@
         <v>2015</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -13020,15 +13017,15 @@
         <v>1883</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -13036,7 +13033,7 @@
         <v>1960</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -13044,15 +13041,15 @@
         <v>1991</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -13060,7 +13057,7 @@
         <v>1872</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -13068,7 +13065,7 @@
         <v>2032</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -13076,7 +13073,7 @@
         <v>2035</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -13084,7 +13081,7 @@
         <v>1865</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -13092,7 +13089,7 @@
         <v>1864</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -13100,7 +13097,7 @@
         <v>1992</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -13108,7 +13105,7 @@
         <v>1874</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -13116,7 +13113,7 @@
         <v>1907</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -13124,7 +13121,7 @@
         <v>1908</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -13132,7 +13129,7 @@
         <v>1877</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -13140,7 +13137,7 @@
         <v>937</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -13148,7 +13145,7 @@
         <v>1917</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -13156,7 +13153,7 @@
         <v>1959</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -13164,7 +13161,7 @@
         <v>1977</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -13172,7 +13169,7 @@
         <v>1985</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -13180,7 +13177,7 @@
         <v>2040</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -13188,7 +13185,7 @@
         <v>1938</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -13196,7 +13193,7 @@
         <v>1878</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -13204,7 +13201,7 @@
         <v>2045</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -13212,7 +13209,7 @@
         <v>1884</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -13220,7 +13217,7 @@
         <v>1920</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -13228,7 +13225,7 @@
         <v>1892</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -13236,7 +13233,7 @@
         <v>1993</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -13244,7 +13241,7 @@
         <v>1936</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -13252,7 +13249,7 @@
         <v>1852</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -13260,7 +13257,7 @@
         <v>2021</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -13268,7 +13265,7 @@
         <v>1986</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -13276,7 +13273,7 @@
         <v>1988</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -13284,7 +13281,7 @@
         <v>1975</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -13292,7 +13289,7 @@
         <v>1922</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -13300,7 +13297,7 @@
         <v>1921</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -13308,7 +13305,7 @@
         <v>2026</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -13316,7 +13313,7 @@
         <v>1886</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -13324,7 +13321,7 @@
         <v>1896</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -13332,7 +13329,7 @@
         <v>1973</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -13340,7 +13337,7 @@
         <v>1974</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -13348,7 +13345,7 @@
         <v>1891</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -13356,7 +13353,7 @@
         <v>1862</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -13364,7 +13361,7 @@
         <v>1863</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -13372,7 +13369,7 @@
         <v>2027</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -13380,7 +13377,7 @@
         <v>2041</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -13388,7 +13385,7 @@
         <v>1924</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -13396,7 +13393,7 @@
         <v>1902</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -13404,7 +13401,7 @@
         <v>1903</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -13412,7 +13409,7 @@
         <v>1935</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -13420,7 +13417,7 @@
         <v>1935</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -13428,7 +13425,7 @@
         <v>1859</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -13436,7 +13433,7 @@
         <v>1976</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -13444,7 +13441,7 @@
         <v>311</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -13452,7 +13449,7 @@
         <v>2017</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -13460,7 +13457,7 @@
         <v>1899</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -13468,7 +13465,7 @@
         <v>1989</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -13476,7 +13473,7 @@
         <v>1919</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -13484,7 +13481,7 @@
         <v>1905</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -13492,7 +13489,7 @@
         <v>1949</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -13500,7 +13497,7 @@
         <v>2023</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2224</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -13508,7 +13505,7 @@
         <v>1969</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -13516,7 +13513,7 @@
         <v>1996</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -13524,7 +13521,7 @@
         <v>2042</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -13532,7 +13529,7 @@
         <v>2036</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -13540,7 +13537,7 @@
         <v>1956</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -13548,7 +13545,7 @@
         <v>2020</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2230</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -13556,7 +13553,7 @@
         <v>2034</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2231</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -13564,7 +13561,7 @@
         <v>1867</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2232</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -13572,7 +13569,7 @@
         <v>1926</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2233</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -13580,7 +13577,7 @@
         <v>1881</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -13588,7 +13585,7 @@
         <v>1980</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2235</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -13596,7 +13593,7 @@
         <v>1981</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2236</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -13604,7 +13601,7 @@
         <v>1957</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -13612,7 +13609,7 @@
         <v>1887</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -13620,7 +13617,7 @@
         <v>1861</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -13628,12 +13625,12 @@
         <v>1860</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B124" s="4" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -13641,7 +13638,7 @@
         <v>1947</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -13649,7 +13646,7 @@
         <v>1948</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -13657,7 +13654,7 @@
         <v>2012</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -13665,7 +13662,7 @@
         <v>2013</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -13673,7 +13670,7 @@
         <v>1856</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -13681,7 +13678,7 @@
         <v>2014</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -13689,7 +13686,7 @@
         <v>1963</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -13697,7 +13694,7 @@
         <v>1854</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -13705,7 +13702,7 @@
         <v>1894</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -13713,7 +13710,7 @@
         <v>2018</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -13721,7 +13718,7 @@
         <v>1857</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -13729,7 +13726,7 @@
         <v>1912</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -13737,7 +13734,7 @@
         <v>1925</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -14082,7 +14079,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>2237</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
@@ -14092,97 +14089,97 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>2244</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
     </row>
   </sheetData>
@@ -14213,16 +14210,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -14252,13 +14249,13 @@
         <v>812</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>849</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -14285,7 +14282,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1598</v>
@@ -14296,7 +14293,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>951</v>
@@ -14305,7 +14302,7 @@
         <v>836</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -14326,7 +14323,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>852</v>
@@ -14334,13 +14331,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>853</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -14435,7 +14432,7 @@
         <v>834</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
@@ -14528,7 +14525,7 @@
         <v>872</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
@@ -14536,7 +14533,7 @@
         <v>873</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
@@ -14564,7 +14561,7 @@
         <v>827</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
@@ -14577,7 +14574,7 @@
         <v>876</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
@@ -14585,7 +14582,7 @@
         <v>877</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
@@ -14660,7 +14657,7 @@
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="4" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
@@ -14675,12 +14672,12 @@
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" s="4" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" s="4" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
@@ -14738,7 +14735,7 @@
         <v>828</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
@@ -14826,7 +14823,7 @@
         <v>907</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -14914,7 +14911,7 @@
         <v>826</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
@@ -14947,7 +14944,7 @@
         <v>833</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
@@ -14955,7 +14952,7 @@
         <v>926</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
@@ -14963,7 +14960,7 @@
         <v>927</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
@@ -14971,7 +14968,7 @@
         <v>835</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
@@ -14979,7 +14976,7 @@
         <v>928</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
@@ -14987,7 +14984,7 @@
         <v>929</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
@@ -15010,7 +15007,7 @@
         <v>933</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.15">
@@ -15025,15 +15022,15 @@
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C135" s="4" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C136" s="4" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
     </row>
   </sheetData>
@@ -15063,16 +15060,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -15499,7 +15496,7 @@
         <v>1480</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -15631,7 +15628,7 @@
         <v>1444</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -17196,8 +17193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D50F3D-FFC8-8A4A-AE6D-406004476759}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -17211,13 +17208,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -17321,7 +17318,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1751</v>
@@ -17343,7 +17340,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>2343</v>
+        <v>2338</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1810</v>
@@ -17354,7 +17351,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>2342</v>
+        <v>2337</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1811</v>
@@ -17387,7 +17384,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>1798</v>
@@ -17398,7 +17395,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>1812</v>
@@ -17409,40 +17406,40 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1789</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>1799</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1748</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1765</v>
@@ -17450,7 +17447,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>1753</v>
@@ -17458,7 +17455,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>1764</v>
@@ -17466,7 +17463,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1835</v>
@@ -17474,7 +17471,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1833</v>
@@ -17482,7 +17479,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1778</v>
@@ -17490,7 +17487,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>1826</v>
@@ -17498,7 +17495,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1823</v>
@@ -17506,7 +17503,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>1827</v>
@@ -17514,7 +17511,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>1754</v>
@@ -17522,7 +17519,7 @@
     </row>
     <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>1779</v>
@@ -17530,7 +17527,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1800</v>
@@ -17773,102 +17770,102 @@
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" s="4" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="4" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" s="4" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="12" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" s="4" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" s="4" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" s="4" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" s="4" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" s="4" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" s="4" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" s="4" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="11" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" s="4" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" s="4" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" s="4" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B99" s="4" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" s="4" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
     </row>
   </sheetData>
